--- a/BPSKFINAL.xlsx
+++ b/BPSKFINAL.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Downloads\Tele\lab2\lab2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77D64D3-9008-4E5E-81F8-DBC7A60AE305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Loop BW</t>
   </si>
@@ -344,13 +363,16 @@
   </si>
   <si>
     <t>0.2475</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,24 +424,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -457,7 +488,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -491,6 +522,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -525,9 +557,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -700,14 +733,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -738,8 +773,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -770,8 +808,12 @@
       <c r="J2">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <f>SUM(C2,B2,D2,E2,F2,G2,H2,I2,J2)</f>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -802,8 +844,12 @@
       <c r="J3">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="0">SUM(C3,B3,D3,E3,F3,G3,H3,I3,J3)</f>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -834,8 +880,12 @@
       <c r="J4">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -866,8 +916,12 @@
       <c r="J5">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -898,8 +952,12 @@
       <c r="J6">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -930,8 +988,12 @@
       <c r="J7">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -962,8 +1024,12 @@
       <c r="J8">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -994,8 +1060,12 @@
       <c r="J9">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1026,8 +1096,12 @@
       <c r="J10">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1058,8 +1132,12 @@
       <c r="J11">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1090,8 +1168,12 @@
       <c r="J12">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1122,8 +1204,12 @@
       <c r="J13">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1154,8 +1240,12 @@
       <c r="J14">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1186,8 +1276,12 @@
       <c r="J15">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1218,8 +1312,12 @@
       <c r="J16">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1250,8 +1348,12 @@
       <c r="J17">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1282,8 +1384,12 @@
       <c r="J18">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1314,8 +1420,12 @@
       <c r="J19">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1346,8 +1456,12 @@
       <c r="J20">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1378,8 +1492,12 @@
       <c r="J21">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1410,8 +1528,12 @@
       <c r="J22">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1442,8 +1564,12 @@
       <c r="J23">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1474,8 +1600,12 @@
       <c r="J24">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1506,8 +1636,12 @@
       <c r="J25">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1538,8 +1672,12 @@
       <c r="J26">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1570,8 +1708,12 @@
       <c r="J27">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1602,8 +1744,12 @@
       <c r="J28">
         <v>45</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1634,8 +1780,12 @@
       <c r="J29">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1666,8 +1816,12 @@
       <c r="J30">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1698,8 +1852,12 @@
       <c r="J31">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1730,8 +1888,12 @@
       <c r="J32">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -1762,8 +1924,12 @@
       <c r="J33">
         <v>46</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1960,12 @@
       <c r="J34">
         <v>46</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -1826,8 +1996,12 @@
       <c r="J35">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -1858,8 +2032,12 @@
       <c r="J36">
         <v>46</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -1890,8 +2068,12 @@
       <c r="J37">
         <v>46</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -1922,8 +2104,12 @@
       <c r="J38">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -1954,8 +2140,12 @@
       <c r="J39">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -1986,8 +2176,12 @@
       <c r="J40">
         <v>47</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -2018,8 +2212,12 @@
       <c r="J41">
         <v>47</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -2050,8 +2248,12 @@
       <c r="J42">
         <v>47</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -2082,8 +2284,12 @@
       <c r="J43">
         <v>47</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -2114,8 +2320,12 @@
       <c r="J44">
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -2146,8 +2356,12 @@
       <c r="J45">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -2178,8 +2392,12 @@
       <c r="J46">
         <v>47</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -2210,8 +2428,12 @@
       <c r="J47">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -2242,8 +2464,12 @@
       <c r="J48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -2274,8 +2500,12 @@
       <c r="J49">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -2306,8 +2536,12 @@
       <c r="J50">
         <v>47</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -2338,8 +2572,12 @@
       <c r="J51">
         <v>47</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -2370,8 +2608,12 @@
       <c r="J52">
         <v>47</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -2402,8 +2644,12 @@
       <c r="J53">
         <v>47</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -2434,8 +2680,12 @@
       <c r="J54">
         <v>47</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -2466,8 +2716,12 @@
       <c r="J55">
         <v>47</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -2498,8 +2752,12 @@
       <c r="J56">
         <v>47</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -2530,8 +2788,12 @@
       <c r="J57">
         <v>48</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -2562,8 +2824,12 @@
       <c r="J58">
         <v>48</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -2594,8 +2860,12 @@
       <c r="J59">
         <v>48</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -2626,8 +2896,12 @@
       <c r="J60">
         <v>48</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -2658,8 +2932,12 @@
       <c r="J61">
         <v>48</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>70</v>
       </c>
@@ -2690,8 +2968,12 @@
       <c r="J62">
         <v>48</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -2722,8 +3004,12 @@
       <c r="J63">
         <v>48</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -2754,8 +3040,12 @@
       <c r="J64">
         <v>47</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -2786,8 +3076,12 @@
       <c r="J65">
         <v>47</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>74</v>
       </c>
@@ -2818,8 +3112,12 @@
       <c r="J66">
         <v>48</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>75</v>
       </c>
@@ -2850,8 +3148,12 @@
       <c r="J67">
         <v>47</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67">
+        <f t="shared" ref="K67:K101" si="1">SUM(C67,B67,D67,E67,F67,G67,H67,I67,J67)</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -2882,8 +3184,12 @@
       <c r="J68">
         <v>48</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -2914,8 +3220,12 @@
       <c r="J69">
         <v>48</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>78</v>
       </c>
@@ -2946,8 +3256,12 @@
       <c r="J70">
         <v>48</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -2978,8 +3292,12 @@
       <c r="J71">
         <v>48</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>80</v>
       </c>
@@ -3010,8 +3328,12 @@
       <c r="J72">
         <v>48</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>81</v>
       </c>
@@ -3042,8 +3364,12 @@
       <c r="J73">
         <v>48</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -3074,8 +3400,12 @@
       <c r="J74">
         <v>48</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>83</v>
       </c>
@@ -3106,8 +3436,12 @@
       <c r="J75">
         <v>48</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -3138,8 +3472,12 @@
       <c r="J76">
         <v>48</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>85</v>
       </c>
@@ -3170,8 +3508,12 @@
       <c r="J77">
         <v>49</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>86</v>
       </c>
@@ -3202,8 +3544,12 @@
       <c r="J78">
         <v>50</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -3234,8 +3580,12 @@
       <c r="J79">
         <v>49</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>88</v>
       </c>
@@ -3266,8 +3616,12 @@
       <c r="J80">
         <v>49</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>89</v>
       </c>
@@ -3298,8 +3652,12 @@
       <c r="J81">
         <v>51</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>90</v>
       </c>
@@ -3330,8 +3688,12 @@
       <c r="J82">
         <v>51</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>91</v>
       </c>
@@ -3362,8 +3724,12 @@
       <c r="J83">
         <v>54</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>92</v>
       </c>
@@ -3394,8 +3760,12 @@
       <c r="J84">
         <v>52</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>93</v>
       </c>
@@ -3426,8 +3796,12 @@
       <c r="J85">
         <v>56</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85">
+        <f t="shared" si="1"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>94</v>
       </c>
@@ -3458,8 +3832,12 @@
       <c r="J86">
         <v>66</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -3490,8 +3868,12 @@
       <c r="J87">
         <v>73</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87">
+        <f t="shared" si="1"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>96</v>
       </c>
@@ -3522,8 +3904,12 @@
       <c r="J88">
         <v>76</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88">
+        <f t="shared" si="1"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>97</v>
       </c>
@@ -3554,8 +3940,12 @@
       <c r="J89">
         <v>76</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89">
+        <f t="shared" si="1"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>98</v>
       </c>
@@ -3586,8 +3976,12 @@
       <c r="J90">
         <v>76</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90">
+        <f t="shared" si="1"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>99</v>
       </c>
@@ -3618,8 +4012,12 @@
       <c r="J91">
         <v>76</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>100</v>
       </c>
@@ -3650,8 +4048,12 @@
       <c r="J92">
         <v>76</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>101</v>
       </c>
@@ -3682,8 +4084,12 @@
       <c r="J93">
         <v>75</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93">
+        <f t="shared" si="1"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>102</v>
       </c>
@@ -3714,8 +4120,12 @@
       <c r="J94">
         <v>82</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94">
+        <f t="shared" si="1"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>103</v>
       </c>
@@ -3746,8 +4156,12 @@
       <c r="J95">
         <v>91</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95">
+        <f t="shared" si="1"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>104</v>
       </c>
@@ -3778,8 +4192,12 @@
       <c r="J96">
         <v>-1</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>105</v>
       </c>
@@ -3810,8 +4228,12 @@
       <c r="J97">
         <v>-1</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>106</v>
       </c>
@@ -3842,8 +4264,12 @@
       <c r="J98">
         <v>98</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>107</v>
       </c>
@@ -3874,8 +4300,12 @@
       <c r="J99">
         <v>99</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99">
+        <f t="shared" si="1"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>108</v>
       </c>
@@ -3906,8 +4336,12 @@
       <c r="J100">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>109</v>
       </c>
@@ -3938,8 +4372,13 @@
       <c r="J101">
         <v>97</v>
       </c>
+      <c r="K101">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>